--- a/ResultadoEleicoesDistritos/R. A. MADEIRA_PORTO MONIZ.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. MADEIRA_PORTO MONIZ.xlsx
@@ -597,25 +597,25 @@
         <v>903</v>
       </c>
       <c r="H2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I2" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N2" t="n">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -627,34 +627,34 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="T2" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
